--- a/data/figure_supplementary_figure_3_medication.xlsx
+++ b/data/figure_supplementary_figure_3_medication.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Azithromycin</t>
+          <t>Azithromycin (Zithromax, Z-Pak)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Azithromycin</t>
+          <t>Azithromycin (Zithromax, Z-Pak)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3892,7 +3892,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5421,7 +5421,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6989,7 +6989,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8135,7 +8135,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8359,7 +8359,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8527,7 +8527,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8807,7 +8807,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -9072,7 +9072,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -9128,7 +9128,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -9184,7 +9184,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9602,7 +9602,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -10465,7 +10465,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10634,7 +10634,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10680,7 +10680,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10767,7 +10767,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10808,7 +10808,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -11136,7 +11136,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -11259,7 +11259,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -11382,7 +11382,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11587,7 +11587,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11628,7 +11628,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Clindamycin</t>
+          <t>Clindamycin (Cleocin)</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11956,7 +11956,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -12202,7 +12202,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -12325,7 +12325,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -12366,7 +12366,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Levofloxacin</t>
+          <t>Levofloxacin (Levaquin)</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Ampicillin</t>
+          <t>Ampicillin (Prinicipen)</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Clindamycin</t>
+          <t>Clindamycin (Cleocin)</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Cephalexin</t>
+          <t>Cephalexin (Keflex)</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -13227,7 +13227,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Cephalexin</t>
+          <t>Cephalexin (Keflex)</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Cephalexin</t>
+          <t>Cephalexin (Keflex)</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Cefepime</t>
+          <t>Cefepime (Maxipime)</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -13519,7 +13519,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -13570,7 +13570,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -13707,7 +13707,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole and Trimethoprim</t>
+          <t>Sulfamethoxazole and Trimethoprim (Bactrim)</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -13752,7 +13752,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13854,7 +13854,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Ciprofloxacin</t>
+          <t>Ciprofloxacin (Cipro)</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -14007,7 +14007,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -14160,7 +14160,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -14211,7 +14211,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -14262,7 +14262,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -14466,7 +14466,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -14670,7 +14670,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -14874,7 +14874,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -15027,7 +15027,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Amoxicillin</t>
+          <t>Amoxicillin (Amoxil)</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -15170,7 +15170,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -15216,7 +15216,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Doxycycline</t>
+          <t>Doxycycline (Doxy-100, Vibramycin)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -15267,7 +15267,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Metronidazol</t>
+          <t>Metronidazol (Flagyl)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -15420,7 +15420,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -15471,7 +15471,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -15522,7 +15522,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Clindamycin</t>
+          <t>Clindamycin (Cleocin)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Clindamycin</t>
+          <t>Clindamycin (Cleocin)</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -16007,7 +16007,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -16109,7 +16109,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -16160,7 +16160,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -16211,7 +16211,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Vancomycin</t>
+          <t>Vancomycin (Lyphocin, Vancocin,Vancoled, Vancor)</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
